--- a/Processed_data/Data_overview.xlsx
+++ b/Processed_data/Data_overview.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hege-beatefredriksen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C49641DC-7465-E147-B2B5-FA30ACDBC6CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E502C2-3395-4642-80FE-6AD2BE6C48FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17580" yWindow="2460" windowWidth="32980" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13960" yWindow="980" windowWidth="32980" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="233">
   <si>
     <t>Data in ESGF</t>
   </si>
@@ -605,9 +606,6 @@
     <t>Several experiments (e.g. 4xCO2) branch at other dates than Jan 1st.</t>
   </si>
   <si>
-    <t>piControl r1i1p1f1 has time format Datetime360Day, while member r1i2p1f1 has time format datetime64. Maybe this is why they can't be read together</t>
-  </si>
-  <si>
     <t>piControl: only tas has values for all 500 years. All data seems to be available in ESGF</t>
   </si>
   <si>
@@ -656,13 +654,88 @@
     <t>ssp126: error in cat.to_dataset_dict: ValueError: cannot reindex or align along dimension 'time' because the index has duplicate values. Error reported</t>
   </si>
   <si>
-    <t>abrupt-4xCO2: Time index is not given as a CFTimeIndex or DatetimeIndex (it says just "index"), so we cannot easily get out month, year, etc as in other datasets. Error reported</t>
-  </si>
-  <si>
     <t>piControl: Time index is not given as a CFTimeIndex or DatetimeIndex (it says just "index"), so we cannot easily get out month, year, etc as in other datasets. Error reported</t>
   </si>
   <si>
     <t>Every second variable value along the longitude coordinate is nan. Error reported</t>
+  </si>
+  <si>
+    <t>Fixed-SST forcing</t>
+  </si>
+  <si>
+    <t>GISS-E2-1-G p1</t>
+  </si>
+  <si>
+    <t>GISS-E2-1-G p3</t>
+  </si>
+  <si>
+    <t>Models in Smith et al</t>
+  </si>
+  <si>
+    <t>longitude error seems to be fixed</t>
+  </si>
+  <si>
+    <t>1 member</t>
+  </si>
+  <si>
+    <t>2 members: f1 and f2</t>
+  </si>
+  <si>
+    <t>5 members</t>
+  </si>
+  <si>
+    <t>tas missing in esgf</t>
+  </si>
+  <si>
+    <t>2 members p1 and p2</t>
+  </si>
+  <si>
+    <t>many members!</t>
+  </si>
+  <si>
+    <t>see notes. Data request sent</t>
+  </si>
+  <si>
+    <t>Models in ESGF with piClim-4xCO2</t>
+  </si>
+  <si>
+    <t>Models in ESGF with piClim-histall</t>
+  </si>
+  <si>
+    <t>3 members</t>
+  </si>
+  <si>
+    <t>CNRM-CM6-1 </t>
+  </si>
+  <si>
+    <t>6 members, but some may be unavailable in esgf</t>
+  </si>
+  <si>
+    <t>3 members ok</t>
+  </si>
+  <si>
+    <t>request submitted for all members</t>
+  </si>
+  <si>
+    <t>member f1 requested, but this member turns out to have an error: https://errata.es-doc.org/static/view.html?uid=a67396b6-bfeb-4e11-b9cf-72ddc0275aba</t>
+  </si>
+  <si>
+    <t>abrupt-4xCO2: Time index is not given as a CFTimeIndex or DatetimeIndex (it says just "index"), so we cannot easily get out month, year, etc as in other datasets. Error reported, but problem may be with intake-esm? The problem is probably related to the fact that the members have different lengths and starting months, because each member can now be loaded separately</t>
+  </si>
+  <si>
+    <t>member p2 requested, and now globally averaged</t>
+  </si>
+  <si>
+    <t>request submitted for members r2, r3. Ok now</t>
+  </si>
+  <si>
+    <t>request sent for member r1i1p3f2. Ok now</t>
+  </si>
+  <si>
+    <t>piControl members have different calendars, and can't be loaded together</t>
+  </si>
+  <si>
+    <t>More data requested</t>
   </si>
 </sst>
 </file>
@@ -1141,9 +1214,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B102" sqref="B102"/>
+      <selection pane="topRight" activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1698,38 +1771,39 @@
         <v>59</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>200</v>
-      </c>
       <c r="D23" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="G23" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>200</v>
-      </c>
       <c r="I23" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>199</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N23" s="3"/>
       <c r="O23" t="s">
         <v>60</v>
       </c>
@@ -1745,10 +1819,10 @@
         <v>61</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1757,19 +1831,19 @@
         <v>0</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O24" t="s">
         <v>62</v>
@@ -1786,10 +1860,10 @@
         <v>64</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1798,25 +1872,25 @@
         <v>0</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O25" t="s">
         <v>60</v>
@@ -1986,8 +2060,8 @@
       <c r="A31" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>43</v>
+      <c r="B31" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31">
@@ -1996,15 +2070,17 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="G31" s="3" t="s">
         <v>77</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
       <c r="O31" t="s">
         <v>78</v>
       </c>
@@ -2428,6 +2504,7 @@
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
+      <c r="N44" s="3"/>
       <c r="O44" s="13" t="s">
         <v>105</v>
       </c>
@@ -2552,43 +2629,46 @@
         <v>113</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>43</v>
+        <v>218</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O49" s="13" t="s">
         <v>114</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="Q49" t="s">
         <v>33</v>
@@ -2828,7 +2908,9 @@
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
+      <c r="J58" s="8" t="s">
+        <v>232</v>
+      </c>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
       <c r="O58" t="s">
@@ -3256,19 +3338,19 @@
         <v>59</v>
       </c>
       <c r="B93" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="15"/>
       <c r="B94" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="15"/>
       <c r="B95" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3276,7 +3358,7 @@
         <v>64</v>
       </c>
       <c r="B97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3295,7 +3377,7 @@
         <v>164</v>
       </c>
       <c r="B101" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3303,7 +3385,7 @@
         <v>80</v>
       </c>
       <c r="B103" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3418,7 +3500,7 @@
         <v>106</v>
       </c>
       <c r="B128" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3451,7 +3533,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="B135" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3489,7 +3571,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="B143" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3497,7 +3579,7 @@
         <v>133</v>
       </c>
       <c r="B145" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3505,12 +3587,12 @@
         <v>135</v>
       </c>
       <c r="B147" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="B148" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3518,7 +3600,7 @@
         <v>138</v>
       </c>
       <c r="B150" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3526,7 +3608,7 @@
         <v>140</v>
       </c>
       <c r="B152" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3537,18 +3619,18 @@
         <v>14</v>
       </c>
       <c r="C154" t="s">
+        <v>194</v>
+      </c>
+      <c r="D154" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D154" s="13" t="s">
+      <c r="E154" t="s">
         <v>196</v>
-      </c>
-      <c r="E154" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="B155" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3564,4 +3646,422 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7A10C0-C4AA-9140-8FA9-7B2B6113BD8F}">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D41" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>221</v>
+      </c>
+      <c r="D47" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" t="s">
+        <v>221</v>
+      </c>
+      <c r="D49" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" t="s">
+        <v>221</v>
+      </c>
+      <c r="D50" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" t="s">
+        <v>224</v>
+      </c>
+      <c r="C53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Processed_data/Data_overview.xlsx
+++ b/Processed_data/Data_overview.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hege-beatefredriksen/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitetetitromso-my.sharepoint.com/personal/hfr003_uit_no/Documents/Papers/ForcingCMIP6/CMIP6-forcing/Processed_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E502C2-3395-4642-80FE-6AD2BE6C48FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{29E502C2-3395-4642-80FE-6AD2BE6C48FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F95D45C-C12A-1640-AEE0-04A91ED7292B}"/>
   <bookViews>
     <workbookView xWindow="13960" yWindow="980" windowWidth="32980" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="234">
   <si>
     <t>Data in ESGF</t>
   </si>
@@ -351,9 +351,6 @@
     <t>HadGEM3-GC31-LL</t>
   </si>
   <si>
-    <t>only rlut in ESGF</t>
-  </si>
-  <si>
     <t>144 x 192 (Native N96 grid; 192 x 144 longitude/latitude)</t>
   </si>
   <si>
@@ -736,6 +733,12 @@
   </si>
   <si>
     <t>More data requested</t>
+  </si>
+  <si>
+    <t>data requested</t>
+  </si>
+  <si>
+    <t>some</t>
   </si>
 </sst>
 </file>
@@ -1214,9 +1217,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D86" sqref="D86"/>
+      <selection pane="topRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1771,42 +1774,45 @@
         <v>59</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>199</v>
-      </c>
       <c r="D23" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="G23" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>199</v>
-      </c>
       <c r="I23" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" t="s">
         <v>60</v>
       </c>
+      <c r="P23" t="s">
+        <v>233</v>
+      </c>
       <c r="Q23" t="s">
         <v>33</v>
       </c>
@@ -1819,10 +1825,10 @@
         <v>61</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1831,22 +1837,25 @@
         <v>0</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O24" t="s">
         <v>62</v>
+      </c>
+      <c r="P24" t="s">
+        <v>32</v>
       </c>
       <c r="Q24" t="s">
         <v>33</v>
@@ -1860,10 +1869,10 @@
         <v>64</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1872,25 +1881,25 @@
         <v>0</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O25" t="s">
         <v>60</v>
@@ -2061,7 +2070,7 @@
         <v>76</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31">
@@ -2071,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>77</v>
@@ -2488,7 +2497,7 @@
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="3" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -2506,7 +2515,7 @@
       <c r="M44" s="8"/>
       <c r="N44" s="3"/>
       <c r="O44" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q44" t="s">
         <v>33</v>
@@ -2514,7 +2523,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>43</v>
@@ -2542,12 +2551,12 @@
         <v>0</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="3" t="s">
@@ -2567,12 +2576,12 @@
       </c>
       <c r="J46" s="9"/>
       <c r="O46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -2588,7 +2597,7 @@
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="O47" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>32</v>
@@ -2599,7 +2608,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -2615,7 +2624,7 @@
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="O48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>32</v>
@@ -2626,46 +2635,46 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="O49" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="N49" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="O49" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>32</v>
@@ -2679,7 +2688,7 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>43</v>
@@ -2697,7 +2706,7 @@
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="O50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q50" t="s">
         <v>33</v>
@@ -2705,10 +2714,10 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>117</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>118</v>
       </c>
       <c r="C51" s="3"/>
       <c r="F51" s="3"/>
@@ -2719,37 +2728,37 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C52" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="O52" t="s">
         <v>120</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="O52" t="s">
-        <v>121</v>
       </c>
       <c r="Q52" t="s">
         <v>33</v>
@@ -2757,7 +2766,7 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -2773,7 +2782,7 @@
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="O53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>32</v>
@@ -2784,7 +2793,7 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -2799,7 +2808,7 @@
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
       <c r="O54" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>32</v>
@@ -2810,7 +2819,7 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="3" t="s">
@@ -2836,7 +2845,7 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -2852,7 +2861,7 @@
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="O56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>32</v>
@@ -2863,7 +2872,7 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>43</v>
@@ -2883,7 +2892,7 @@
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
       <c r="O57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>32</v>
@@ -2894,7 +2903,7 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>43</v>
@@ -2909,12 +2918,12 @@
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
       <c r="O58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P58" t="s">
         <v>73</v>
@@ -2925,7 +2934,7 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>43</v>
@@ -2951,7 +2960,7 @@
         <v>48</v>
       </c>
       <c r="O59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q59" t="s">
         <v>33</v>
@@ -2959,7 +2968,7 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="3" t="s">
@@ -2987,12 +2996,12 @@
         <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61">
@@ -3020,12 +3029,12 @@
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -3046,7 +3055,7 @@
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
       <c r="O62" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P62" s="1" t="s">
         <v>32</v>
@@ -3057,7 +3066,7 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -3077,7 +3086,7 @@
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
       <c r="O63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>32</v>
@@ -3088,7 +3097,7 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -3112,12 +3121,12 @@
         <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="3" t="s">
@@ -3143,12 +3152,12 @@
         <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>43</v>
@@ -3170,7 +3179,7 @@
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
       <c r="O66" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P66" s="1" t="s">
         <v>32</v>
@@ -3181,7 +3190,7 @@
     </row>
     <row r="67" spans="1:17" ht="17" thickBot="1">
       <c r="A67" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B67" s="7">
         <f xml:space="preserve"> 66-8</f>
@@ -3216,20 +3225,20 @@
     </row>
     <row r="68" spans="1:17">
       <c r="Q68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -3237,7 +3246,7 @@
         <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -3245,17 +3254,17 @@
         <v>67</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="B76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="B77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -3263,7 +3272,7 @@
         <v>45</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -3271,31 +3280,31 @@
         <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3303,12 +3312,12 @@
         <v>42</v>
       </c>
       <c r="B83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -3316,7 +3325,7 @@
         <v>42</v>
       </c>
       <c r="B89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3327,7 +3336,7 @@
         <v>55</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -3338,19 +3347,19 @@
         <v>59</v>
       </c>
       <c r="B93" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="15"/>
       <c r="B94" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="15"/>
       <c r="B95" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3358,7 +3367,7 @@
         <v>64</v>
       </c>
       <c r="B97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3369,15 +3378,15 @@
         <v>71</v>
       </c>
       <c r="B99" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B101" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3385,7 +3394,7 @@
         <v>80</v>
       </c>
       <c r="B103" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3396,7 +3405,7 @@
         <v>82</v>
       </c>
       <c r="B105" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D105" s="13"/>
     </row>
@@ -3408,7 +3417,7 @@
         <v>90</v>
       </c>
       <c r="B107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3419,7 +3428,7 @@
         <v>96</v>
       </c>
       <c r="B109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D109" s="13"/>
     </row>
@@ -3428,32 +3437,32 @@
         <v>97</v>
       </c>
       <c r="B111" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="B113" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="B114" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="B115" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="B116" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="B117" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -3461,17 +3470,17 @@
         <v>101</v>
       </c>
       <c r="B119" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="B120" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="B121" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -3479,7 +3488,7 @@
         <v>102</v>
       </c>
       <c r="B123" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -3487,61 +3496,61 @@
         <v>103</v>
       </c>
       <c r="B125" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="B126" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="B129" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="B130" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="B131" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B133" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="B134" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="B135" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B137" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D137" s="13"/>
     </row>
@@ -3550,87 +3559,87 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B139" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B141" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="B142" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="B143" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B145" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B147" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="B148" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B150" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B152" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B154" t="s">
         <v>14</v>
       </c>
       <c r="C154" t="s">
+        <v>193</v>
+      </c>
+      <c r="D154" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D154" s="13" t="s">
+      <c r="E154" t="s">
         <v>195</v>
-      </c>
-      <c r="E154" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="B155" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3665,12 +3674,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -3715,12 +3724,12 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -3730,42 +3739,42 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3776,7 +3785,7 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3787,7 +3796,7 @@
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3798,7 +3807,7 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3809,7 +3818,7 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3820,7 +3829,7 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3831,7 +3840,7 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3842,7 +3851,7 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3853,7 +3862,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3864,115 +3873,115 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B42" t="s">
         <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B46" t="s">
         <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3983,10 +3992,10 @@
         <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3997,7 +4006,7 @@
         <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4008,10 +4017,10 @@
         <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4022,43 +4031,43 @@
         <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D50" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B51" t="s">
         <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B52" t="s">
         <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/Processed_data/Data_overview.xlsx
+++ b/Processed_data/Data_overview.xlsx
@@ -1219,7 +1219,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B25" sqref="B25"/>
+      <selection pane="topRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>

--- a/Processed_data/Data_overview.xlsx
+++ b/Processed_data/Data_overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitetetitromso-my.sharepoint.com/personal/hfr003_uit_no/Documents/Papers/ForcingCMIP6/CMIP6-forcing/Processed_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{29E502C2-3395-4642-80FE-6AD2BE6C48FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F95D45C-C12A-1640-AEE0-04A91ED7292B}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{29E502C2-3395-4642-80FE-6AD2BE6C48FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB826BD4-9491-9840-B24F-1F12A5DFEF96}"/>
   <bookViews>
     <workbookView xWindow="13960" yWindow="980" windowWidth="32980" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -270,9 +270,6 @@
     <t>EC-Earth3</t>
   </si>
   <si>
-    <t>nan</t>
-  </si>
-  <si>
     <t>256 x 1024 (T255L91)</t>
   </si>
   <si>
@@ -687,9 +684,6 @@
     <t>2 members p1 and p2</t>
   </si>
   <si>
-    <t>many members!</t>
-  </si>
-  <si>
     <t>see notes. Data request sent</t>
   </si>
   <si>
@@ -739,6 +733,12 @@
   </si>
   <si>
     <t>some</t>
+  </si>
+  <si>
+    <t>many members! conflicting values for variable 'lat_bnds' on objects to be combined. You can skip this check by specifying compat='override'.</t>
+  </si>
+  <si>
+    <t>longitude error if loading all members, resulting in nan values</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1219,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C31" sqref="C31"/>
+      <selection pane="topRight" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1774,44 +1774,44 @@
         <v>59</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>198</v>
-      </c>
       <c r="D23" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="G23" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>198</v>
-      </c>
       <c r="I23" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="N23" s="3"/>
+        <v>196</v>
+      </c>
+      <c r="N23" s="8"/>
       <c r="O23" t="s">
         <v>60</v>
       </c>
       <c r="P23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q23" t="s">
         <v>33</v>
@@ -1825,10 +1825,10 @@
         <v>61</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1837,19 +1837,19 @@
         <v>0</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O24" t="s">
         <v>62</v>
@@ -1869,10 +1869,10 @@
         <v>64</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1881,25 +1881,25 @@
         <v>0</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O25" t="s">
         <v>60</v>
@@ -2070,7 +2070,7 @@
         <v>76</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31">
@@ -2079,30 +2079,30 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="F31" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
       <c r="O31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q31" t="s">
         <v>33</v>
       </c>
       <c r="R31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>43</v>
@@ -2132,12 +2132,12 @@
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -2155,7 +2155,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="O33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q33" t="s">
         <v>33</v>
@@ -2163,10 +2163,10 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2191,15 +2191,15 @@
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>48</v>
@@ -2226,7 +2226,7 @@
         <v>48</v>
       </c>
       <c r="O35" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q35" t="s">
         <v>33</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="3" t="s">
@@ -2255,7 +2255,7 @@
       <c r="J36" s="8"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q36" t="s">
         <v>33</v>
@@ -2263,14 +2263,14 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="D37">
         <v>0</v>
       </c>
@@ -2278,19 +2278,19 @@
         <v>0</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q37" t="s">
         <v>33</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -2321,7 +2321,7 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>32</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -2354,7 +2354,7 @@
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="O39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>32</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="10" t="s">
@@ -2392,7 +2392,7 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>32</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41">
@@ -2429,12 +2429,12 @@
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>43</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="3" t="s">
@@ -2492,12 +2492,12 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -2513,9 +2513,9 @@
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
-      <c r="N44" s="3"/>
+      <c r="N44" s="8"/>
       <c r="O44" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q44" t="s">
         <v>33</v>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>43</v>
@@ -2551,12 +2551,12 @@
         <v>0</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="3" t="s">
@@ -2576,12 +2576,12 @@
       </c>
       <c r="J46" s="9"/>
       <c r="O46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -2597,7 +2597,7 @@
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="O47" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>32</v>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -2624,7 +2624,7 @@
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="O48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>32</v>
@@ -2635,46 +2635,46 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="O49" s="13" t="s">
         <v>112</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="N49" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="O49" s="13" t="s">
-        <v>113</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>32</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>43</v>
@@ -2706,7 +2706,7 @@
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="O50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q50" t="s">
         <v>33</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>117</v>
       </c>
       <c r="C51" s="3"/>
       <c r="F51" s="3"/>
@@ -2728,37 +2728,37 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C52" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O52" t="s">
         <v>119</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="O52" t="s">
-        <v>120</v>
       </c>
       <c r="Q52" t="s">
         <v>33</v>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -2782,7 +2782,7 @@
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="O53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>32</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -2808,7 +2808,7 @@
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
       <c r="O54" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>32</v>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="3" t="s">
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -2861,7 +2861,7 @@
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="O56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>32</v>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>43</v>
@@ -2892,7 +2892,7 @@
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
       <c r="O57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>32</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>43</v>
@@ -2918,12 +2918,12 @@
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
       <c r="O58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P58" t="s">
         <v>73</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>43</v>
@@ -2960,7 +2960,7 @@
         <v>48</v>
       </c>
       <c r="O59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q59" t="s">
         <v>33</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="3" t="s">
@@ -2996,12 +2996,12 @@
         <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61">
@@ -3029,12 +3029,12 @@
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -3055,7 +3055,7 @@
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
       <c r="O62" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P62" s="1" t="s">
         <v>32</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -3086,7 +3086,7 @@
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
       <c r="O63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>32</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -3121,12 +3121,12 @@
         <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="3" t="s">
@@ -3152,12 +3152,12 @@
         <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>43</v>
@@ -3179,7 +3179,7 @@
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
       <c r="O66" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P66" s="1" t="s">
         <v>32</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="67" spans="1:17" ht="17" thickBot="1">
       <c r="A67" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B67" s="7">
         <f xml:space="preserve"> 66-8</f>
@@ -3225,20 +3225,20 @@
     </row>
     <row r="68" spans="1:17">
       <c r="Q68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -3246,7 +3246,7 @@
         <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -3254,17 +3254,17 @@
         <v>67</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="B76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="B77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -3272,39 +3272,39 @@
         <v>45</v>
       </c>
       <c r="B78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B80" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B81" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B82" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3312,12 +3312,12 @@
         <v>42</v>
       </c>
       <c r="B83" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -3325,7 +3325,7 @@
         <v>42</v>
       </c>
       <c r="B89" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3336,7 +3336,7 @@
         <v>55</v>
       </c>
       <c r="B91" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -3347,19 +3347,19 @@
         <v>59</v>
       </c>
       <c r="B93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="15"/>
       <c r="B94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="15"/>
       <c r="B95" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3367,7 +3367,7 @@
         <v>64</v>
       </c>
       <c r="B97" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3378,23 +3378,23 @@
         <v>71</v>
       </c>
       <c r="B99" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B101" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3402,10 +3402,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B105" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D105" s="13"/>
     </row>
@@ -3414,10 +3414,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3425,132 +3425,132 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D109" s="13"/>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="B113" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="B114" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="B115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="B116" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="B117" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B119" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="B120" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="B121" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B123" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B125" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="B126" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="B129" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="B130" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="B131" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B133" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="B134" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="B135" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B137" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D137" s="13"/>
     </row>
@@ -3559,87 +3559,87 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B139" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B141" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="B142" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="B143" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B145" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B147" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="B148" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B150" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B152" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B154" t="s">
         <v>14</v>
       </c>
       <c r="C154" t="s">
+        <v>192</v>
+      </c>
+      <c r="D154" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D154" s="13" t="s">
+      <c r="E154" t="s">
         <v>194</v>
-      </c>
-      <c r="E154" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="B155" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3674,12 +3674,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -3714,67 +3714,67 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3785,7 +3785,7 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3796,7 +3796,7 @@
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3807,7 +3807,7 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3818,7 +3818,7 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3829,7 +3829,7 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3840,148 +3840,148 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D40" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B42" t="s">
         <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B46" t="s">
         <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D46" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3992,82 +3992,82 @@
         <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D47" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B48" t="s">
         <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
         <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D49" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
         <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D50" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B51" t="s">
         <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B52" t="s">
         <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B53" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C53" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/Processed_data/Data_overview.xlsx
+++ b/Processed_data/Data_overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitetetitromso-my.sharepoint.com/personal/hfr003_uit_no/Documents/Papers/ForcingCMIP6/CMIP6-forcing/Processed_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{29E502C2-3395-4642-80FE-6AD2BE6C48FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB826BD4-9491-9840-B24F-1F12A5DFEF96}"/>
+  <xr:revisionPtr revIDLastSave="311" documentId="13_ncr:1_{29E502C2-3395-4642-80FE-6AD2BE6C48FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EA6D209-6568-5748-99F4-747E14AC0697}"/>
   <bookViews>
-    <workbookView xWindow="13960" yWindow="980" windowWidth="32980" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19160" yWindow="1120" windowWidth="32980" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="232">
   <si>
     <t>Data in ESGF</t>
   </si>
@@ -183,9 +183,6 @@
     <t>CAS-ESM2-0</t>
   </si>
   <si>
-    <t>only tas</t>
-  </si>
-  <si>
     <t>CESM2</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>CESM2-FV2</t>
   </si>
   <si>
-    <t>rsdt missing</t>
-  </si>
-  <si>
     <t>CESM2-WACCM</t>
   </si>
   <si>
@@ -291,18 +285,12 @@
     <t>EC-Earth3-Veg-LR</t>
   </si>
   <si>
-    <t>rsdt, rlut missing</t>
-  </si>
-  <si>
     <t>160 x 320 (T159L62-ORCA1L75)</t>
   </si>
   <si>
     <t>FGOALS-f3-L</t>
   </si>
   <si>
-    <t>rlut, rsdt missing</t>
-  </si>
-  <si>
     <t>180 x 288 (gs1x1)</t>
   </si>
   <si>
@@ -315,9 +303,6 @@
     <t>FIO-ESM-2-0</t>
   </si>
   <si>
-    <t>rsut, rsdt missing</t>
-  </si>
-  <si>
     <t>GFDL-CM4</t>
   </si>
   <si>
@@ -387,15 +372,9 @@
     <t>KIOST-ESM</t>
   </si>
   <si>
-    <t>ESGF provides only the variables tas, rlut</t>
-  </si>
-  <si>
     <t>MCM-UA-1-0</t>
   </si>
   <si>
-    <t>rsdt, rsut missing</t>
-  </si>
-  <si>
     <t>80 x 96 (lat-lon)</t>
   </si>
   <si>
@@ -486,9 +465,6 @@
     <t>same as above, and branch times are given in years instead of days</t>
   </si>
   <si>
-    <t>piControl variables missing for some time periods. Branch times or parent time units given for abrutp4xCO2 contains error. Time in piControl ranges from 5201 to 6600</t>
-  </si>
-  <si>
     <t>Note that branch time for piControl from spin-up is the same as the branch time of abrupt4xCO2, so I think we can conclude that they both start at the same time</t>
   </si>
   <si>
@@ -573,15 +549,6 @@
     <t>ssp585: only tas is available for member r4i1p1f3</t>
   </si>
   <si>
-    <t>WARNING:urllib3.connectionpool:Connection pool is full, discarding connection: www.googleapis.com</t>
-  </si>
-  <si>
-    <t>historical: same warning appears. But I am able to run my algorithm for computing global mean values</t>
-  </si>
-  <si>
-    <t>historical r3, r4: only tas available</t>
-  </si>
-  <si>
     <t>r1i1p1f1 has Gregorian calendar, and r2i1p1f1 has time format datetime64</t>
   </si>
   <si>
@@ -594,18 +561,6 @@
     <t>r1i1p1f1 has Proleptic Gregorian calendar, and r2i1p1f1 has time format datetime64</t>
   </si>
   <si>
-    <t>abrupt4xCO2: only 5 years available for several members</t>
-  </si>
-  <si>
-    <t>Several experiments (e.g. 4xCO2) branch at other dates than Jan 1st.</t>
-  </si>
-  <si>
-    <t>piControl: only tas has values for all 500 years. All data seems to be available in ESGF</t>
-  </si>
-  <si>
-    <t>abrupt-4xCO2: only 80 years available. Year 81-150 are available in ESGF through noresg.nird.sigma2.no</t>
-  </si>
-  <si>
     <t>historical: lat_bnds has a time dimension, which I think it shouldn't have. It appears to have the same values at all times</t>
   </si>
   <si>
@@ -615,18 +570,6 @@
     <t>historical: only tas is available for members r2, r3</t>
   </si>
   <si>
-    <t>tas, rlut, rsdt</t>
-  </si>
-  <si>
-    <t>r1i1p1f2</t>
-  </si>
-  <si>
-    <t>Data are missing for the last 350 years</t>
-  </si>
-  <si>
-    <t>historical member r14: only tas is available in cloud, but all in ESGF</t>
-  </si>
-  <si>
     <t>lat_bnds, lon_bnds missing. Areacella used instead when computing global average</t>
   </si>
   <si>
@@ -642,9 +585,6 @@
     <t>ssp245: members r7,r8,r9,r10 have only 5 years of data</t>
   </si>
   <si>
-    <t>piControl: lon, lat dimensions wrong. Warning appears when loading data, and the loading seems to be never-ending:</t>
-  </si>
-  <si>
     <t>ssp126: error in cat.to_dataset_dict: ValueError: cannot reindex or align along dimension 'time' because the index has duplicate values. Error reported</t>
   </si>
   <si>
@@ -729,9 +669,6 @@
     <t>More data requested</t>
   </si>
   <si>
-    <t>data requested</t>
-  </si>
-  <si>
     <t>some</t>
   </si>
   <si>
@@ -739,13 +676,80 @@
   </si>
   <si>
     <t>longitude error if loading all members, resulting in nan values</t>
+  </si>
+  <si>
+    <t>1pctCO2</t>
+  </si>
+  <si>
+    <t>but rsdt is longer than the other variables</t>
+  </si>
+  <si>
+    <t>rlut, rsut, rsdt missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsdt time axis seems to have the wrong years, but can probably still be used </t>
+  </si>
+  <si>
+    <t>rsut missing in cloud. It seems to be available in ESGF</t>
+  </si>
+  <si>
+    <t>if loading all members simultaneously: cannot reindex or align along dimension 'time' because the index has duplicate values</t>
+  </si>
+  <si>
+    <r>
+      <t>ValueError</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--jp-code-font-family)"/>
+      </rPr>
+      <t>: cannot reindex or align along dimension 'time' because the index has duplicate values</t>
+    </r>
+  </si>
+  <si>
+    <t>rlut missing</t>
+  </si>
+  <si>
+    <t>CMCC-CM2-HR4</t>
+  </si>
+  <si>
+    <t>rsut missing</t>
+  </si>
+  <si>
+    <t>ssp370: has only 40 years of data for all 3 members. No more data in esgf either</t>
+  </si>
+  <si>
+    <t>abrupt-4xCO2: only 80 years available. Year 81-150 are available in ESGF through noresg.nird.sigma2.no. Data request sent</t>
+  </si>
+  <si>
+    <t>piControl: only tas has values for all 500 years. All data seems to be available in ESGF. Request sent</t>
+  </si>
+  <si>
+    <t>abrupt4xCO2: only 5 years available for many members. Several experiments (e.g. 4xCO2) branch at other dates than Jan 1st.</t>
+  </si>
+  <si>
+    <t>rsdt, rsut missing. Also in ESGF, last checked oct8 21</t>
+  </si>
+  <si>
+    <t>missing time periods. Request sent</t>
+  </si>
+  <si>
+    <t>means that more data is requested oct 8</t>
+  </si>
+  <si>
+    <t>piControl variables missing for some time periods. Request sent</t>
+  </si>
+  <si>
+    <t>Branch times or parent time units given for abrutp4xCO2 contains error. Time in piControl ranges from 5201 to 6600</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -813,6 +817,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFE75C58"/>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -846,7 +855,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -865,6 +874,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -875,7 +923,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -890,11 +938,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1215,11 +1270,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U155"/>
+  <dimension ref="A1:V157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J31" sqref="J31"/>
+      <selection pane="topRight" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1228,16 +1283,17 @@
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" customWidth="1"/>
-    <col min="14" max="14" width="14.1640625" customWidth="1"/>
-    <col min="15" max="15" width="42.1640625" customWidth="1"/>
-    <col min="16" max="16" width="21.1640625" customWidth="1"/>
-    <col min="17" max="17" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" customWidth="1"/>
+    <col min="16" max="16" width="42.1640625" customWidth="1"/>
+    <col min="17" max="17" width="21.1640625" customWidth="1"/>
+    <col min="18" max="18" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1245,10 +1301,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -1256,17 +1312,18 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="1"/>
       <c r="B4" s="8" t="s">
         <v>6</v>
@@ -1274,41 +1331,43 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
-      <c r="N4" t="s">
+      <c r="L4" s="10"/>
+      <c r="O4" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="F5" s="9"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -1322,43 +1381,46 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>19</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>20</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
@@ -1375,19 +1437,20 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="K9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="O9" s="2" t="s">
+      <c r="N9" s="8"/>
+      <c r="P9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
@@ -1404,19 +1467,20 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="K10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="O10" s="2" t="s">
+      <c r="N10" s="8"/>
+      <c r="P10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -1433,17 +1497,18 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="O11" t="s">
+      <c r="K11" s="8"/>
+      <c r="P11" t="s">
         <v>37</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -1457,10 +1522,10 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12">
-        <v>0</v>
-      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8"/>
       <c r="H12">
         <v>0</v>
       </c>
@@ -1470,11 +1535,14 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="O12" t="s">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
@@ -1491,18 +1559,19 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="M13" s="4"/>
-      <c r="O13" s="2" t="s">
+      <c r="K13" s="8"/>
+      <c r="N13" s="4"/>
+      <c r="P13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -1515,27 +1584,28 @@
         <v>0</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14">
-        <v>0</v>
-      </c>
+      <c r="G14" s="8"/>
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="M14" s="8"/>
-      <c r="O14" s="2" t="s">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="P14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="Q14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
@@ -1552,47 +1622,49 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
-      <c r="O15" s="2" t="s">
+      <c r="K15" s="8"/>
+      <c r="P15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="Q15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1603,49 +1675,49 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="K17" s="8"/>
       <c r="M17" s="8"/>
-      <c r="O17" s="2" t="s">
+      <c r="N17" s="8"/>
+      <c r="P17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1658,385 +1730,352 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="8"/>
+      <c r="J19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="P19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="K19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="Q19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:22">
       <c r="A20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="P21" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="5" t="s">
+      <c r="R21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="8"/>
+      <c r="P22" s="13"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O21" s="13" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="P23" t="s">
         <v>56</v>
       </c>
-      <c r="Q21" t="s">
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c r="P24" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>210</v>
+      </c>
+      <c r="R24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="S24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="P25" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25" t="s">
+        <v>33</v>
+      </c>
+      <c r="S25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="17" thickBot="1">
+      <c r="A26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="P26" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="N23" s="8"/>
-      <c r="O23" t="s">
-        <v>60</v>
-      </c>
-      <c r="P23" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q23" t="s">
+      <c r="R26" t="s">
         <v>33</v>
       </c>
-      <c r="R23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" s="5" t="s">
+      <c r="S26" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="O24" t="s">
-        <v>62</v>
-      </c>
-      <c r="P24" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q24" t="s">
+      <c r="V26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="17" customHeight="1" thickBot="1">
+      <c r="A27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R27" t="s">
         <v>33</v>
       </c>
-      <c r="R24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="A25" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="O25" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R25" t="s">
-        <v>63</v>
-      </c>
-      <c r="U25" t="s">
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="P28" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="10" t="s">
+    <row r="29" spans="1:22">
+      <c r="A29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
-      <c r="A27" s="2" t="s">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="O27" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="A28" s="2" t="s">
+      <c r="Q29" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="O28" t="s">
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="P28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
-      <c r="A29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="O29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30">
@@ -2048,10 +2087,10 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30">
-        <v>0</v>
-      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8"/>
       <c r="H30">
         <v>0</v>
       </c>
@@ -2061,246 +2100,238 @@
       <c r="J30">
         <v>0</v>
       </c>
-      <c r="O30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="A31" s="5" t="s">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="P32" t="s">
+        <v>75</v>
+      </c>
+      <c r="R32" t="s">
+        <v>33</v>
+      </c>
+      <c r="S32" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="O31" t="s">
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="B33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="P34" t="s">
+        <v>80</v>
+      </c>
+      <c r="R34" t="s">
         <v>33</v>
       </c>
-      <c r="R31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="A32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="O32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="5" t="s">
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="O33" t="s">
+      <c r="B35" s="8"/>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="P35" t="s">
         <v>82</v>
       </c>
-      <c r="Q33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="2" t="s">
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="O34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O35" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="B36" s="8"/>
-      <c r="C36" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="C36" s="8"/>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>43</v>
+      <c r="F36" t="s">
+        <v>218</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q36" t="s">
+      <c r="K36" s="8"/>
+      <c r="P36" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="R36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:18" ht="17" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="R37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="17" thickBot="1">
+      <c r="A38" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="8"/>
+      <c r="B38" s="20" t="s">
+        <v>222</v>
+      </c>
       <c r="C38" s="8"/>
       <c r="D38">
         <v>0</v>
@@ -2309,30 +2340,20 @@
         <v>0</v>
       </c>
       <c r="F38" s="8"/>
-      <c r="G38">
-        <v>0</v>
-      </c>
+      <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q38" t="s">
+      <c r="I38" s="8"/>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" s="8"/>
+      <c r="R38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:18">
       <c r="A39" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -2342,143 +2363,153 @@
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="O39" t="s">
-        <v>94</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="H40" s="8"/>
       <c r="I40" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J40" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
-      <c r="O40" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q40" t="s">
+      <c r="P40" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="2" t="s">
-        <v>98</v>
+    <row r="41" spans="1:18">
+      <c r="A41" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B41" s="8"/>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
+      <c r="C41" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
       <c r="F41" s="8"/>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="O41" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="G41" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
+      <c r="F43" s="8"/>
+      <c r="G43" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2489,99 +2520,96 @@
       <c r="J43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="5" t="s">
-        <v>102</v>
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44">
+        <v>0</v>
+      </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="10" t="s">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44" s="10" t="s">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q44" t="s">
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="R45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:18">
       <c r="A46" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B46" s="8"/>
-      <c r="C46" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="C46" s="8"/>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="J46" s="9"/>
-      <c r="O46" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="5" t="s">
-        <v>108</v>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" s="8"/>
+      <c r="P46" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -2593,22 +2621,19 @@
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
+      <c r="H47" s="19" t="s">
+        <v>219</v>
+      </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
-      <c r="O47" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="K47" s="8"/>
+      <c r="P47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -2623,229 +2648,242 @@
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
-      <c r="O48" t="s">
+      <c r="K48" s="8"/>
+      <c r="P48" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="P49" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="17" thickBot="1">
+      <c r="A50" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="O50" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="P50" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R50" t="s">
+        <v>33</v>
+      </c>
+      <c r="S50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="17" thickBot="1">
+      <c r="A51" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="P51" t="s">
         <v>109</v>
       </c>
-      <c r="P48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q48" t="s">
+      <c r="R51" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
-      <c r="A49" s="5" t="s">
+    <row r="52" spans="1:19" ht="17" thickBot="1">
+      <c r="A52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I52" s="8"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="8"/>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="N49" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="O49" s="13" t="s">
+      <c r="B53" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P53" t="s">
         <v>112</v>
       </c>
-      <c r="P49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q49" t="s">
+      <c r="R53" t="s">
         <v>33</v>
       </c>
-      <c r="R49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
-      <c r="A50" s="5" t="s">
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="8"/>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="O50" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
-      <c r="A51" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="1:18">
-      <c r="A52" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="O52" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18">
-      <c r="A53" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="O53" t="s">
-        <v>121</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18">
-      <c r="A54" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q54" t="s">
+      <c r="K54" s="8"/>
+      <c r="P54" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R54" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
-      <c r="A55" s="2" t="s">
-        <v>124</v>
+    <row r="55" spans="1:19">
+      <c r="A55" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="B55" s="8"/>
-      <c r="C55" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
       <c r="F55" s="8"/>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55" s="3"/>
-      <c r="J55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18">
-      <c r="A56" s="5" t="s">
-        <v>125</v>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -2857,26 +2895,24 @@
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="O56" t="s">
-        <v>126</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>43</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57">
         <v>0</v>
@@ -2889,135 +2925,127 @@
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="O57" t="s">
-        <v>128</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q57" t="s">
+      <c r="K57" s="8"/>
+      <c r="P57" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R57" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:19">
       <c r="A58" s="5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
-      <c r="J58" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="L58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
       <c r="M58" s="8"/>
-      <c r="O58" t="s">
-        <v>130</v>
-      </c>
+      <c r="N58" s="8"/>
       <c r="P58" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q58" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R58" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:19" ht="17" thickBot="1">
       <c r="A59" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B59" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
+      <c r="C59" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
       <c r="F59" s="8"/>
-      <c r="G59" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O59" t="s">
-        <v>132</v>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="P59" t="s">
+        <v>123</v>
       </c>
       <c r="Q59" t="s">
+        <v>71</v>
+      </c>
+      <c r="R59" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
-      <c r="A60" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="3" t="s">
+    <row r="60" spans="1:19" ht="17" thickBot="1">
+      <c r="A60" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="20" t="s">
         <v>43</v>
       </c>
+      <c r="C60" s="8"/>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" s="8"/>
+      <c r="P60" t="s">
+        <v>125</v>
+      </c>
+      <c r="R60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="17" thickBot="1">
+      <c r="A61" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="O60" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
-      <c r="A61" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B61" s="8"/>
-      <c r="C61">
-        <v>0</v>
-      </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -3028,45 +3056,52 @@
       <c r="J61">
         <v>0</v>
       </c>
-      <c r="O61" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
-      <c r="A62" s="5" t="s">
-        <v>136</v>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
+      <c r="C62">
+        <v>0</v>
+      </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="F62" s="4">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -3076,28 +3111,30 @@
       <c r="E63">
         <v>0</v>
       </c>
-      <c r="F63" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="L63" s="8"/>
+      <c r="J63" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K63" s="8"/>
       <c r="M63" s="8"/>
-      <c r="O63" t="s">
-        <v>139</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q63" t="s">
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R63" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
-      <c r="A64" s="2" t="s">
-        <v>140</v>
+    <row r="64" spans="1:19">
+      <c r="A64" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -3108,30 +3145,31 @@
         <v>0</v>
       </c>
       <c r="F64" s="8"/>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="O64" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="G64" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="P64" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B65" s="8"/>
-      <c r="C65" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="C65" s="8"/>
       <c r="D65">
         <v>0</v>
       </c>
@@ -3139,9 +3177,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="8"/>
-      <c r="G65">
-        <v>0</v>
-      </c>
+      <c r="G65" s="8"/>
       <c r="H65">
         <v>0</v>
       </c>
@@ -3151,17 +3187,18 @@
       <c r="J65">
         <v>0</v>
       </c>
-      <c r="O65" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
-      <c r="A66" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66">
         <v>0</v>
@@ -3169,483 +3206,493 @@
       <c r="E66">
         <v>0</v>
       </c>
-      <c r="F66" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="O66" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q66" t="s">
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="P67" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R67" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="17" thickBot="1">
-      <c r="A67" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B67" s="7">
+    <row r="68" spans="1:18" ht="17" thickBot="1">
+      <c r="A68" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="7">
         <f xml:space="preserve"> 66-8</f>
         <v>58</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C68" s="7">
         <f>66-16</f>
         <v>50</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D68" s="7">
         <v>10</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E68" s="7">
         <v>7</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F68" s="7"/>
+      <c r="G68" s="7">
         <f>66-11</f>
         <v>55</v>
       </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="16"/>
-      <c r="Q67" s="7">
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="15"/>
+      <c r="R68" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
-      <c r="Q68" t="s">
+    <row r="69" spans="1:18">
+      <c r="R69" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="17" thickBot="1"/>
+    <row r="71" spans="1:18" ht="17" thickBot="1">
+      <c r="B71" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C71" s="22"/>
+      <c r="D71" s="23"/>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="B77" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="B78" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
-      <c r="A72" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="A73" t="s">
-        <v>125</v>
-      </c>
-      <c r="B73" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
-      <c r="A74" t="s">
-        <v>40</v>
-      </c>
-      <c r="B74" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="A75" t="s">
-        <v>67</v>
-      </c>
-      <c r="B75" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
-      <c r="B76" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
-      <c r="B77" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
-      <c r="A78" t="s">
-        <v>45</v>
-      </c>
-      <c r="B78" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="A79" t="s">
-        <v>93</v>
-      </c>
-      <c r="B79" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
-      <c r="A80" t="s">
-        <v>136</v>
-      </c>
-      <c r="B80" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B81" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="B82" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
         <v>42</v>
       </c>
-      <c r="B83" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="1" t="s">
-        <v>158</v>
+      <c r="B84" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" t="s">
+      <c r="A89" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
         <v>42</v>
       </c>
-      <c r="B89" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="1"/>
+      <c r="B90" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B91" t="s">
-        <v>160</v>
-      </c>
+      <c r="A91" s="1"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="15"/>
+      <c r="A92" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B92" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B93" t="s">
-        <v>198</v>
-      </c>
+      <c r="A93" s="14"/>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="15"/>
+      <c r="A94" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="B94" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="15"/>
-      <c r="B95" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="17" t="s">
-        <v>64</v>
+      <c r="A97" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="B97" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="15"/>
+      <c r="A98" s="14"/>
+      <c r="B98" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="15" t="s">
-        <v>71</v>
-      </c>
+      <c r="A99" s="14"/>
       <c r="B99" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>162</v>
+      <c r="A101" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="B101" t="s">
-        <v>204</v>
-      </c>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="14"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="15" t="s">
-        <v>79</v>
+      <c r="A103" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="B103" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="15"/>
+        <v>153</v>
+      </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="B105" t="s">
-        <v>163</v>
-      </c>
-      <c r="D105" s="13"/>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="15"/>
+        <v>184</v>
+      </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="15" t="s">
-        <v>89</v>
+      <c r="A107" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="B107" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="15"/>
+      <c r="A108" s="14"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
+        <v>79</v>
+      </c>
+      <c r="B109" t="s">
+        <v>155</v>
+      </c>
+      <c r="D109" s="13"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="14"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B111" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="14"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>90</v>
+      </c>
+      <c r="B113" t="s">
+        <v>157</v>
+      </c>
+      <c r="D113" s="13"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>91</v>
+      </c>
+      <c r="B115" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="B117" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="B118" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="B119" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="B120" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="B121" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
         <v>95</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B123" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="B124" t="s">
         <v>165</v>
       </c>
-      <c r="D109" s="13"/>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="B125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
         <v>96</v>
       </c>
-      <c r="B111" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="B113" t="s">
+      <c r="B127" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="B114" t="s">
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>97</v>
+      </c>
+      <c r="B129" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="B115" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="B116" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="B117" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>100</v>
-      </c>
-      <c r="B119" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="B120" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="B121" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>101</v>
-      </c>
-      <c r="B123" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>102</v>
-      </c>
-      <c r="B125" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="B126" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>104</v>
-      </c>
-      <c r="B128" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="B129" s="13" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="B130" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="B131" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
-        <v>111</v>
-      </c>
-      <c r="B133" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>106</v>
+      </c>
       <c r="B134" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="B135" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="B136" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>108</v>
+      </c>
+      <c r="B138" t="s">
+        <v>172</v>
+      </c>
+      <c r="D138" s="13"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="D139" s="13"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B140" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="2"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B142" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>122</v>
+      </c>
+      <c r="B144" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="B146" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>124</v>
+      </c>
+      <c r="B148" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>126</v>
+      </c>
+      <c r="B150" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" t="s">
-        <v>113</v>
-      </c>
-      <c r="B137" t="s">
-        <v>183</v>
-      </c>
-      <c r="D137" s="13"/>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="D138" s="13"/>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B139" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" t="s">
+    <row r="151" spans="1:4">
+      <c r="B151" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
         <v>129</v>
       </c>
-      <c r="B141" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="B142" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="B143" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" t="s">
+      <c r="B153" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B145" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" t="s">
-        <v>133</v>
-      </c>
-      <c r="B147" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="B148" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" t="s">
-        <v>136</v>
-      </c>
-      <c r="B150" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B152" s="18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" t="s">
-        <v>143</v>
-      </c>
-      <c r="B154" t="s">
-        <v>14</v>
-      </c>
-      <c r="C154" t="s">
-        <v>192</v>
-      </c>
-      <c r="D154" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E154" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="B155" t="s">
-        <v>195</v>
-      </c>
+      <c r="B155" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="D157" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="O4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="P3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="P4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3674,12 +3721,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -3689,92 +3736,92 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3785,289 +3832,289 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D34" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D38" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="D40" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D41" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B42" t="s">
         <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B46" t="s">
         <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D46" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
         <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="D47" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
         <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s">
         <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="D49" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
         <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="D50" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
         <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B52" t="s">
         <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="C53" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Processed_data/Data_overview.xlsx
+++ b/Processed_data/Data_overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitetetitromso-my.sharepoint.com/personal/hfr003_uit_no/Documents/Papers/ForcingCMIP6/CMIP6-forcing/Processed_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="311" documentId="13_ncr:1_{29E502C2-3395-4642-80FE-6AD2BE6C48FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EA6D209-6568-5748-99F4-747E14AC0697}"/>
+  <xr:revisionPtr revIDLastSave="372" documentId="13_ncr:1_{29E502C2-3395-4642-80FE-6AD2BE6C48FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DEA0D84-B1DB-4549-ADA6-18724D6E9953}"/>
   <bookViews>
-    <workbookView xWindow="19160" yWindow="1120" windowWidth="32980" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25380" yWindow="3900" windowWidth="32980" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="240">
   <si>
     <t>Data in ESGF</t>
   </si>
@@ -516,28 +516,7 @@
     <t xml:space="preserve">abrupt4xCO2 member r1i1p1f3 missing the first 150 years? </t>
   </si>
   <si>
-    <t>historical members r6i1p5f1, r7i1p5f1, r8i1p5f1 missing variables. Member r7i1p3f1 missing</t>
-  </si>
-  <si>
-    <t>ssp126 member r1i1p5f1 missing variables. Several members (5) seem to be missing in cloud</t>
-  </si>
-  <si>
-    <t>ssp245: 10 out of 15 members available</t>
-  </si>
-  <si>
-    <t>ssp370: member r1i1p5f1 missing variables. 12 out of 18 members available</t>
-  </si>
-  <si>
     <t>ssp585: member r1i1p5f1 missing variables. Member r1i1p1f2 missing in cloud</t>
-  </si>
-  <si>
-    <t>piControl member p3: only tas is available</t>
-  </si>
-  <si>
-    <t>abrupt-4xCO2: member p1i1p3f1 has only tas. The remaining variables are available in ESGF</t>
-  </si>
-  <si>
-    <t>historical member r1i1p3f1: rlut missing</t>
   </si>
   <si>
     <t>abrupt-4xCO2: rsdt missing</t>
@@ -715,9 +694,6 @@
     <t>CMCC-CM2-HR4</t>
   </si>
   <si>
-    <t>rsut missing</t>
-  </si>
-  <si>
     <t>ssp370: has only 40 years of data for all 3 members. No more data in esgf either</t>
   </si>
   <si>
@@ -739,10 +715,58 @@
     <t>means that more data is requested oct 8</t>
   </si>
   <si>
-    <t>piControl variables missing for some time periods. Request sent</t>
-  </si>
-  <si>
     <t>Branch times or parent time units given for abrutp4xCO2 contains error. Time in piControl ranges from 5201 to 6600</t>
+  </si>
+  <si>
+    <t>Request successfull. see notes</t>
+  </si>
+  <si>
+    <t>fixed: piControl variables missing for some time periods. Request sent</t>
+  </si>
+  <si>
+    <t>Errata info: 	The tas variable is missing data for two time-steps, 2000-01 and 2007-01</t>
+  </si>
+  <si>
+    <t>Request successfull. see notes. Note the strong drift in this run!</t>
+  </si>
+  <si>
+    <t>fGOALS-f3-L</t>
+  </si>
+  <si>
+    <t>branch info contains so many errors that it is impossible to tell what it should be</t>
+  </si>
+  <si>
+    <t>see notes. P5 requested oct 13</t>
+  </si>
+  <si>
+    <t>see notes. Missing years of p1 requested oct 13</t>
+  </si>
+  <si>
+    <t>ssp126, ssp245, ssp370: only tas exist, for all members</t>
+  </si>
+  <si>
+    <t>only tas</t>
+  </si>
+  <si>
+    <t>only tas, remaining variables requested oct 13</t>
+  </si>
+  <si>
+    <t>branch info is likely wrong, since experiments branch after end of piControl</t>
+  </si>
+  <si>
+    <t>different versions of each variable, and some differences in time period, I don't know if this is a problem</t>
+  </si>
+  <si>
+    <t>historical member r7i1p3f1 missing</t>
+  </si>
+  <si>
+    <t>ssp126 members f2 have only tas, and go to year 2500. Remaining variables are in ESGF. Some members are also missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssp370: member r1i1p5f1 missing variables. 12 out of 18 members available. </t>
+  </si>
+  <si>
+    <t>ssp245: many members contain only a few years of data. Not sure if complete</t>
   </si>
 </sst>
 </file>
@@ -923,7 +947,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -944,12 +968,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1272,9 +1295,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D87" sqref="D87"/>
+      <selection pane="topRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1381,7 +1404,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
@@ -1638,7 +1661,7 @@
         <v>47</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16">
@@ -1650,16 +1673,16 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1790,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="P21" s="13" t="s">
         <v>54</v>
@@ -1801,16 +1824,20 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+        <v>214</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="8"/>
+      <c r="K22" s="4"/>
       <c r="P22" s="13"/>
     </row>
     <row r="23" spans="1:22">
@@ -1840,45 +1867,45 @@
         <v>57</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="O24" s="8"/>
       <c r="P24" t="s">
         <v>58</v>
       </c>
       <c r="Q24" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="R24" t="s">
         <v>33</v>
@@ -1892,10 +1919,10 @@
         <v>59</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1905,19 +1932,19 @@
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="P25" t="s">
         <v>60</v>
@@ -1937,10 +1964,10 @@
         <v>62</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1950,25 +1977,25 @@
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>63</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="P26" t="s">
         <v>58</v>
@@ -1987,8 +2014,8 @@
       <c r="A27" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="25" t="s">
-        <v>43</v>
+      <c r="B27" s="24" t="s">
+        <v>223</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2124,7 +2151,9 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" s="8"/>
+      <c r="G31" s="8" t="s">
+        <v>225</v>
+      </c>
       <c r="H31">
         <v>0</v>
       </c>
@@ -2146,7 +2175,7 @@
         <v>74</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32">
@@ -2157,10 +2186,10 @@
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="10" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
@@ -2228,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>43</v>
@@ -2283,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -2329,8 +2358,8 @@
       <c r="A38" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>222</v>
+      <c r="B38" s="24" t="s">
+        <v>235</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38">
@@ -2498,27 +2527,25 @@
         <v>95</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>43</v>
+        <v>230</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
+      <c r="G43" s="8"/>
+      <c r="H43" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2622,7 +2649,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="19" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -2692,41 +2719,41 @@
         <v>106</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="P50" s="13" t="s">
         <v>107</v>
@@ -2745,8 +2772,8 @@
       <c r="A51" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="20" t="s">
-        <v>43</v>
+      <c r="B51" s="24" t="s">
+        <v>226</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51">
@@ -2772,14 +2799,14 @@
       <c r="A52" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="24" t="s">
-        <v>228</v>
+      <c r="B52" s="23" t="s">
+        <v>220</v>
       </c>
       <c r="C52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="4"/>
@@ -2790,10 +2817,10 @@
         <v>111</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2802,22 +2829,22 @@
         <v>0</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="P53" t="s">
         <v>112</v>
@@ -2986,7 +3013,7 @@
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
@@ -3004,8 +3031,8 @@
       <c r="A60" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="20" t="s">
-        <v>43</v>
+      <c r="B60" s="24" t="s">
+        <v>223</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60">
@@ -3034,8 +3061,8 @@
         <v>126</v>
       </c>
       <c r="B61" s="8"/>
-      <c r="C61" s="20" t="s">
-        <v>43</v>
+      <c r="C61" s="24" t="s">
+        <v>223</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3297,11 +3324,11 @@
     </row>
     <row r="70" spans="1:18" ht="17" thickBot="1"/>
     <row r="71" spans="1:18" ht="17" thickBot="1">
-      <c r="B71" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="C71" s="22"/>
-      <c r="D71" s="23"/>
+      <c r="B71" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" s="21"/>
+      <c r="D71" s="22"/>
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="1" t="s">
@@ -3329,7 +3356,7 @@
         <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -3390,6 +3417,22 @@
         <v>149</v>
       </c>
     </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>227</v>
+      </c>
+      <c r="B85" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>53</v>
+      </c>
+      <c r="B86" t="s">
+        <v>234</v>
+      </c>
+    </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
         <v>150</v>
@@ -3422,7 +3465,7 @@
         <v>65</v>
       </c>
       <c r="B94" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3430,19 +3473,19 @@
         <v>57</v>
       </c>
       <c r="B97" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="14"/>
       <c r="B98" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="14"/>
       <c r="B99" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3450,7 +3493,7 @@
         <v>62</v>
       </c>
       <c r="B101" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3469,7 +3512,7 @@
         <v>154</v>
       </c>
       <c r="B105" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3477,7 +3520,7 @@
         <v>77</v>
       </c>
       <c r="B107" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3525,27 +3568,27 @@
     </row>
     <row r="117" spans="1:4">
       <c r="B117" t="s">
-        <v>159</v>
+        <v>236</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="B118" t="s">
-        <v>160</v>
+        <v>237</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="B119" t="s">
-        <v>161</v>
+        <v>239</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="B120" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="B121" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3553,17 +3596,7 @@
         <v>95</v>
       </c>
       <c r="B123" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="B124" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="B125" t="s">
-        <v>166</v>
+        <v>231</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3571,7 +3604,7 @@
         <v>96</v>
       </c>
       <c r="B127" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3579,12 +3612,12 @@
         <v>97</v>
       </c>
       <c r="B129" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="B130" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3592,17 +3625,17 @@
         <v>106</v>
       </c>
       <c r="B134" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="B135" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="B136" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3610,7 +3643,7 @@
         <v>108</v>
       </c>
       <c r="B138" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D138" s="13"/>
     </row>
@@ -3622,7 +3655,7 @@
         <v>120</v>
       </c>
       <c r="B140" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3633,7 +3666,7 @@
         <v>117</v>
       </c>
       <c r="B142" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3641,12 +3674,12 @@
         <v>122</v>
       </c>
       <c r="B144" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="B146" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3654,7 +3687,7 @@
         <v>124</v>
       </c>
       <c r="B148" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3662,12 +3695,12 @@
         <v>126</v>
       </c>
       <c r="B150" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="B151" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3675,7 +3708,7 @@
         <v>129</v>
       </c>
       <c r="B153" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3683,7 +3716,7 @@
         <v>131</v>
       </c>
       <c r="B155" s="17" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3721,12 +3754,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -3771,12 +3804,12 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -3821,7 +3854,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3832,7 +3865,7 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3843,7 +3876,7 @@
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3854,7 +3887,7 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3865,7 +3898,7 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3876,7 +3909,7 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3887,7 +3920,7 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3898,7 +3931,7 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3909,7 +3942,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3920,10 +3953,10 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D34" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3934,7 +3967,7 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3945,7 +3978,7 @@
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3956,10 +3989,10 @@
         <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D38" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3970,7 +4003,7 @@
         <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3981,10 +4014,10 @@
         <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D40" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3995,10 +4028,10 @@
         <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D41" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4009,26 +4042,26 @@
         <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B46" t="s">
         <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D46" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4039,10 +4072,10 @@
         <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D47" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4053,7 +4086,7 @@
         <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4064,10 +4097,10 @@
         <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D49" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4078,10 +4111,10 @@
         <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D50" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4092,7 +4125,7 @@
         <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -4103,7 +4136,7 @@
         <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4111,10 +4144,10 @@
         <v>129</v>
       </c>
       <c r="B53" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C53" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
